--- a/similarities/split_global/harmonic_similarity_timestamps_25.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,479 +484,497 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:05.746892')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:20.480000', '0:00:26.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:18.740000', '0:01:29.260000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=20.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=78.74</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:31.460000', '0:01:37.740000')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:14.380000', '0:01:30.640000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=74.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:02:25.040000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:51.839081', '0:01:03.042709')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>jaah_35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Bb:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:00:28.830000', '0:00:40.350000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:06:58.920000', '0:07:07.890000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=28.83</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=418.92</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:06.160000', '0:00:23.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:02:45.140000', '0:02:48.700000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=165.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+          <t>('0:00:42.520000', '0:00:55.620000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+          <t>('0:00:29.220000', '0:01:03.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:22.500000', '0:01:30.740000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:19.180000')]</t>
+          <t>('0:00:48.180000', '0:00:50.270000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+          <t>('0:00:45.970000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -966,32 +984,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925')]</t>
+          <t>('0:00:33.140000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.020000', '0:00:13.980000')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=7.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1000,190 +1018,196 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:44.070000', '0:00:55.760000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:53.140000', '0:01:55.480000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=44.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min/5', 'C:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:03.700000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.357000', '0:00:22.981000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_46</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Bb:7', 'Eb:7', 'Bb:7']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'F:7', 'Bb:7', 'F:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.900000', '0:00:15.470000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.870000', '0:00:11.840000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=0.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=0.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
